--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>aaromal</t>
+          <t>Aaromal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:53:32</t>
+          <t>14:56:36</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +465,94 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14:56:36</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>45252.55686342593</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Arundhathi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45252.57010466435</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Devi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45252.56784009259</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ANNA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45252.56781892361</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EVAN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45252.57010039352</v>
       </c>
     </row>
   </sheetData>
